--- a/demodata/12.XLSX
+++ b/demodata/12.XLSX
@@ -1,20 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\alkana-dashboard\demodata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21860" windowHeight="14940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2751,14 +2743,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2768,6 +2767,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2796,8 +2807,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2807,321 +2822,56 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="6" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="13" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="15" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="42" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="11" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="5" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="6" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="14" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="6" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="15" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="6" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="28" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="8" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="34" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="10" customWidth="1"/>
+    <col min="16" max="16" bestFit="1" width="29" customWidth="1"/>
+    <col min="17" max="17" bestFit="1" width="11" customWidth="1"/>
+    <col min="18" max="18" bestFit="1" width="41" customWidth="1"/>
+    <col min="19" max="19" bestFit="1" width="13" customWidth="1"/>
+    <col min="20" max="20" bestFit="1" width="15" customWidth="1"/>
+    <col min="21" max="21" bestFit="1" width="6" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="7" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="6" customWidth="1"/>
+    <col min="24" max="24" bestFit="1" width="6" customWidth="1"/>
+    <col min="25" max="25" bestFit="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25" x14ac:dyDescent="0.25">
+    <row r="0" spans="">
       <c r="A1" s="1" t="s">
         <v>884</v>
       </c>
@@ -3198,7 +2948,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3352,7 +3102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3506,7 +3256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3737,7 +3487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3814,7 +3564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +3641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3968,7 +3718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4045,7 +3795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +3872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +3949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +4026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4353,7 +4103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +4180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4507,7 +4257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4584,7 +4334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4661,7 +4411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4738,7 +4488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +4565,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4969,7 +4719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -5046,7 +4796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +4873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5200,7 +4950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -5277,7 +5027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5354,7 +5104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -5508,7 +5258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5585,7 +5335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5662,7 +5412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -5739,7 +5489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5816,7 +5566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5893,7 +5643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5970,7 +5720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -6047,7 +5797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -6124,7 +5874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -6201,7 +5951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -6278,7 +6028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -6355,7 +6105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -6432,7 +6182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -6509,7 +6259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -6586,7 +6336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -6663,7 +6413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -6740,7 +6490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -6817,7 +6567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -6894,7 +6644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -6971,7 +6721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +6798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -7125,7 +6875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -7202,7 +6952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -7279,7 +7029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -7356,7 +7106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -7433,7 +7183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -7510,7 +7260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -7587,7 +7337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -7664,7 +7414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -7741,7 +7491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -7818,7 +7568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -7895,7 +7645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -7972,7 +7722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -8049,7 +7799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -8126,7 +7876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -8203,7 +7953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -8280,7 +8030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -8357,7 +8107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -8434,7 +8184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -8511,7 +8261,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -8588,7 +8338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -8665,7 +8415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -8742,7 +8492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -8896,7 +8646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -8973,7 +8723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -9050,7 +8800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -9127,7 +8877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -9204,7 +8954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -9281,7 +9031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -9358,7 +9108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -9435,7 +9185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -9512,7 +9262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -9589,7 +9339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -9666,7 +9416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -9743,7 +9493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -9820,7 +9570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -9897,7 +9647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -9974,7 +9724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -10051,7 +9801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -10128,7 +9878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -10205,7 +9955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -10282,7 +10032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -10359,7 +10109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -10436,7 +10186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -10513,7 +10263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -10590,7 +10340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -10667,7 +10417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -10744,7 +10494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -10821,7 +10571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -10898,7 +10648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -10975,7 +10725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -11052,7 +10802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -11129,7 +10879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -11206,7 +10956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -11283,7 +11033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -11360,7 +11110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -11437,7 +11187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -11514,7 +11264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -11591,7 +11341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +11418,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -11745,7 +11495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -11822,7 +11572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -11899,7 +11649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -11976,7 +11726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -12053,7 +11803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -12130,7 +11880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -12207,7 +11957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -12284,7 +12034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -12361,7 +12111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -12438,7 +12188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -12515,7 +12265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -12592,7 +12342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -12669,7 +12419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -12746,7 +12496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -12823,7 +12573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -12900,7 +12650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -12977,7 +12727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -13054,7 +12804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -13131,7 +12881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -13208,7 +12958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -13285,7 +13035,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -13362,7 +13112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -13439,7 +13189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -13516,7 +13266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -13593,7 +13343,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -13670,7 +13420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -13747,7 +13497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -13824,7 +13574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -13901,7 +13651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -13978,7 +13728,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -14055,7 +13805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -14132,7 +13882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -14209,7 +13959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -14286,7 +14036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -14363,7 +14113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -14440,7 +14190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -14517,7 +14267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -14594,7 +14344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -14671,7 +14421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -14748,7 +14498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -14825,7 +14575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -14902,7 +14652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -14979,7 +14729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -15056,7 +14806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -15133,7 +14883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -15210,7 +14960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -15287,7 +15037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -15364,7 +15114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -15441,7 +15191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -15518,7 +15268,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -15595,7 +15345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -15672,7 +15422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -15749,7 +15499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -15826,7 +15576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -15903,7 +15653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -15980,7 +15730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -16057,7 +15807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -16134,7 +15884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -16211,7 +15961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -16288,7 +16038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -16365,7 +16115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -16442,7 +16192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -16519,7 +16269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -16596,7 +16346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -16673,7 +16423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -16750,7 +16500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -16827,7 +16577,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -16904,7 +16654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -16981,7 +16731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -17058,7 +16808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -17135,7 +16885,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -17212,7 +16962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -17289,7 +17039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -17366,7 +17116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -17443,7 +17193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -17520,7 +17270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -17597,7 +17347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -17674,7 +17424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -17751,7 +17501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -17828,7 +17578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -17905,7 +17655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -17982,7 +17732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -18059,7 +17809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -18136,7 +17886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -18213,7 +17963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -18290,7 +18040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -18367,7 +18117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -18444,7 +18194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -18521,7 +18271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -18598,7 +18348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -18675,7 +18425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -18752,7 +18502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -18829,7 +18579,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -18906,7 +18656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -18983,7 +18733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -19060,7 +18810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -19137,7 +18887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -19214,7 +18964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -19291,7 +19041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -19368,7 +19118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -19445,7 +19195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -19522,7 +19272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -19599,7 +19349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -19676,7 +19426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -19753,7 +19503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -19830,7 +19580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -19907,7 +19657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -19984,7 +19734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
